--- a/tests/test.xlsx
+++ b/tests/test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="63">
   <si>
     <t>Scenario</t>
   </si>
@@ -1413,46 +1413,46 @@
         <v>0</v>
       </c>
       <c r="D18" s="3">
-        <v>412010.8510990347</v>
+        <v>412047.5320061742</v>
       </c>
       <c r="E18" s="3">
-        <v>413616.9566811439</v>
+        <v>413735.1222047611</v>
       </c>
       <c r="F18" s="3">
-        <v>415474.3200604022</v>
+        <v>415679.6962505301</v>
       </c>
       <c r="G18" s="3">
-        <v>417850.7548662722</v>
+        <v>418132.3066504938</v>
       </c>
       <c r="H18" s="3">
-        <v>421308.4106528674</v>
+        <v>421650.610904283</v>
       </c>
       <c r="I18" s="3">
-        <v>425942.7547290487</v>
+        <v>426331.7709152632</v>
       </c>
       <c r="J18" s="3">
-        <v>431737.7150564484</v>
+        <v>432162.9547274425</v>
       </c>
       <c r="K18" s="3">
-        <v>438442.5361331916</v>
+        <v>438896.3488175675</v>
       </c>
       <c r="L18" s="3">
-        <v>445850.6602863089</v>
+        <v>446327.6181845064</v>
       </c>
       <c r="M18" s="3">
-        <v>453974.5479397382</v>
+        <v>454470.9799511385</v>
       </c>
       <c r="N18" s="3">
-        <v>462622.1942424494</v>
+        <v>463135.6302939343</v>
       </c>
       <c r="O18" s="3">
-        <v>471604.5670553115</v>
+        <v>472133.2973482833</v>
       </c>
       <c r="P18" s="3">
-        <v>480900.3689482859</v>
+        <v>481443.2397931197</v>
       </c>
       <c r="Q18" s="3">
-        <v>5691336.637750502</v>
+        <v>5696147.108047497</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1464,46 +1464,46 @@
         <v>0</v>
       </c>
       <c r="D19" s="3">
-        <v>199221.217884523</v>
+        <v>196848.3045727076</v>
       </c>
       <c r="E19" s="3">
-        <v>201669.9935027254</v>
+        <v>199317.4642202598</v>
       </c>
       <c r="F19" s="3">
-        <v>204520.6750967334</v>
+        <v>202157.8764909415</v>
       </c>
       <c r="G19" s="3">
-        <v>207588.4479179992</v>
+        <v>205204.7989916589</v>
       </c>
       <c r="H19" s="3">
-        <v>211353.5816495301</v>
+        <v>208940.8827616725</v>
       </c>
       <c r="I19" s="3">
-        <v>215405.6736136251</v>
+        <v>212955.9865718944</v>
       </c>
       <c r="J19" s="3">
-        <v>219095.1728844667</v>
+        <v>216605.3056433503</v>
       </c>
       <c r="K19" s="3">
-        <v>223795.1600144072</v>
+        <v>221261.5091597556</v>
       </c>
       <c r="L19" s="3">
-        <v>228301.5851589349</v>
+        <v>225718.5271261221</v>
       </c>
       <c r="M19" s="3">
-        <v>232799.0687829648</v>
+        <v>230165.883895225</v>
       </c>
       <c r="N19" s="3">
-        <v>237332.544717606</v>
+        <v>234648.3851311253</v>
       </c>
       <c r="O19" s="3">
-        <v>242419.6407901708</v>
+        <v>239681.9775283465</v>
       </c>
       <c r="P19" s="3">
-        <v>247158.3287716696</v>
+        <v>244365.0364040733</v>
       </c>
       <c r="Q19" s="3">
-        <v>2870661.090785356</v>
+        <v>2837871.938497133</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1515,46 +1515,46 @@
         <v>0</v>
       </c>
       <c r="D20" s="3">
-        <v>1523868.276631813</v>
+        <v>1524003.945075005</v>
       </c>
       <c r="E20" s="3">
-        <v>1529808.638007077</v>
+        <v>1530245.686430316</v>
       </c>
       <c r="F20" s="3">
-        <v>1536678.304484609</v>
+        <v>1537437.911325243</v>
       </c>
       <c r="G20" s="3">
-        <v>1545467.814767433</v>
+        <v>1546509.165574239</v>
       </c>
       <c r="H20" s="3">
-        <v>1558256.341940448</v>
+        <v>1559522.007895598</v>
       </c>
       <c r="I20" s="3">
-        <v>1575396.982537562</v>
+        <v>1576835.802470797</v>
       </c>
       <c r="J20" s="3">
-        <v>1596830.292324904</v>
+        <v>1598403.088873504</v>
       </c>
       <c r="K20" s="3">
-        <v>1621628.823995024</v>
+        <v>1623307.301033701</v>
       </c>
       <c r="L20" s="3">
-        <v>1649028.60086069</v>
+        <v>1650792.683064868</v>
       </c>
       <c r="M20" s="3">
-        <v>1679075.709195364</v>
+        <v>1680911.81858826</v>
       </c>
       <c r="N20" s="3">
-        <v>1711059.997553621</v>
+        <v>1712958.998293167</v>
       </c>
       <c r="O20" s="3">
-        <v>1744282.309397919</v>
+        <v>1746237.877602507</v>
       </c>
       <c r="P20" s="3">
-        <v>1778663.873798017</v>
+        <v>1780671.742417363</v>
       </c>
       <c r="Q20" s="3">
-        <v>21050045.96549448</v>
+        <v>21067838.02864457</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1566,46 +1566,46 @@
         <v>0</v>
       </c>
       <c r="D21" s="3">
-        <v>57428.15633072778</v>
+        <v>43270.15530314871</v>
       </c>
       <c r="E21" s="3">
-        <v>57652.02345030392</v>
+        <v>43447.37342562582</v>
       </c>
       <c r="F21" s="3">
-        <v>57910.91215246484</v>
+        <v>43651.57807298033</v>
       </c>
       <c r="G21" s="3">
-        <v>58242.15165546289</v>
+        <v>43909.13290504747</v>
       </c>
       <c r="H21" s="3">
-        <v>58724.09720744356</v>
+        <v>44278.59894875216</v>
       </c>
       <c r="I21" s="3">
-        <v>59370.05552478074</v>
+        <v>44770.17942173857</v>
       </c>
       <c r="J21" s="3">
-        <v>60177.78640547758</v>
+        <v>45382.52680779785</v>
       </c>
       <c r="K21" s="3">
-        <v>61112.33827939007</v>
+        <v>46089.61758099111</v>
       </c>
       <c r="L21" s="3">
-        <v>62144.92009331473</v>
+        <v>46869.99400514474</v>
       </c>
       <c r="M21" s="3">
-        <v>63277.2686441635</v>
+        <v>47725.14905635324</v>
       </c>
       <c r="N21" s="3">
-        <v>64482.62132466124</v>
+        <v>48635.0459416857</v>
       </c>
       <c r="O21" s="3">
-        <v>65734.62987915266</v>
+        <v>49579.9137556322</v>
       </c>
       <c r="P21" s="3">
-        <v>67030.32576411898</v>
+        <v>50557.57439951731</v>
       </c>
       <c r="Q21" s="3">
-        <v>793287.2867114625</v>
+        <v>598166.8396244153</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1617,46 +1617,46 @@
         <v>0</v>
       </c>
       <c r="D22" s="3">
-        <v>393254.4860072445</v>
+        <v>393289.4970542707</v>
       </c>
       <c r="E22" s="3">
-        <v>394787.4753049652</v>
+        <v>394900.2614661295</v>
       </c>
       <c r="F22" s="3">
-        <v>396560.2841500735</v>
+        <v>396756.3108029425</v>
       </c>
       <c r="G22" s="3">
-        <v>398828.5342353909</v>
+        <v>399097.2686677324</v>
       </c>
       <c r="H22" s="3">
-        <v>402128.7838418062</v>
+        <v>402455.405783008</v>
       </c>
       <c r="I22" s="3">
-        <v>406552.1542283392</v>
+        <v>406923.4608576441</v>
       </c>
       <c r="J22" s="3">
-        <v>412083.3050194479</v>
+        <v>412489.1860970964</v>
       </c>
       <c r="K22" s="3">
-        <v>418482.8960964457</v>
+        <v>418916.0494307867</v>
       </c>
       <c r="L22" s="3">
-        <v>425553.7731094014</v>
+        <v>426009.0179957981</v>
       </c>
       <c r="M22" s="3">
-        <v>433307.8292344248</v>
+        <v>433781.6616952934</v>
       </c>
       <c r="N22" s="3">
-        <v>441561.8004414538</v>
+        <v>442051.8628511837</v>
       </c>
       <c r="O22" s="3">
-        <v>450135.2600827093</v>
+        <v>450639.9204795036</v>
       </c>
       <c r="P22" s="3">
-        <v>459007.8802714841</v>
+        <v>459526.0374862374</v>
       </c>
       <c r="Q22" s="3">
-        <v>5432244.462023187</v>
+        <v>5436835.940667626</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1668,43 +1668,43 @@
         <v>0.6823314827901069</v>
       </c>
       <c r="D23" s="3">
-        <v>0.6852825201514114</v>
+        <v>0.6852802394633019</v>
       </c>
       <c r="E23" s="3">
-        <v>0.6846319506679988</v>
+        <v>0.6846434162517728</v>
       </c>
       <c r="F23" s="3">
-        <v>0.6837320966245691</v>
+        <v>0.6837567801787546</v>
       </c>
       <c r="G23" s="3">
-        <v>0.6830350432593693</v>
+        <v>0.6830699353360487</v>
       </c>
       <c r="H23" s="3">
-        <v>0.6822965759785016</v>
+        <v>0.6823389940398397</v>
       </c>
       <c r="I23" s="3">
-        <v>0.6817340476614603</v>
+        <v>0.6817817950919728</v>
       </c>
       <c r="J23" s="3">
-        <v>0.6815963036782599</v>
+        <v>0.6816476519808313</v>
       </c>
       <c r="K23" s="3">
-        <v>0.6811154930296325</v>
+        <v>0.6811695620910542</v>
       </c>
       <c r="L23" s="3">
-        <v>0.6809336351908143</v>
+        <v>0.680989449194164</v>
       </c>
       <c r="M23" s="3">
-        <v>0.6808780759508857</v>
+        <v>0.6809350682965977</v>
       </c>
       <c r="N23" s="3">
-        <v>0.6808785882440739</v>
+        <v>0.6809363857593569</v>
       </c>
       <c r="O23" s="3">
-        <v>0.6806926407604383</v>
+        <v>0.6807510953109484</v>
       </c>
       <c r="P23" s="3">
-        <v>0.6807532848071658</v>
+        <v>0.6808120620212049</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>10</v>
@@ -1719,43 +1719,43 @@
         <v>0.04535037632743646</v>
       </c>
       <c r="D24" s="3">
-        <v>0.04516327472145839</v>
+        <v>0.0346234399586491</v>
       </c>
       <c r="E24" s="3">
-        <v>0.04523233999320789</v>
+        <v>0.03468647504218673</v>
       </c>
       <c r="F24" s="3">
-        <v>0.04533850133807347</v>
+        <v>0.03477215913956811</v>
       </c>
       <c r="G24" s="3">
-        <v>0.04543264998207241</v>
+        <v>0.03484658458410779</v>
       </c>
       <c r="H24" s="3">
-        <v>0.04553198963824243</v>
+        <v>0.03492602518404566</v>
       </c>
       <c r="I24" s="3">
-        <v>0.04561149441393737</v>
+        <v>0.03498891364200997</v>
       </c>
       <c r="J24" s="3">
-        <v>0.0456401533283948</v>
+        <v>0.03500994904016883</v>
       </c>
       <c r="K24" s="3">
-        <v>0.0457013521745754</v>
+        <v>0.03506006695946892</v>
       </c>
       <c r="L24" s="3">
-        <v>0.04573052027342042</v>
+        <v>0.03508238143504402</v>
       </c>
       <c r="M24" s="3">
-        <v>0.04574235366847577</v>
+        <v>0.03509121407912972</v>
       </c>
       <c r="N24" s="3">
-        <v>0.04574480535453939</v>
+        <v>0.03509278650237659</v>
       </c>
       <c r="O24" s="3">
-        <v>0.04576680336256985</v>
+        <v>0.03511110378402864</v>
       </c>
       <c r="P24" s="3">
-        <v>0.04576258426768621</v>
+        <v>0.0351068144602926</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>10</v>
@@ -1770,43 +1770,43 @@
         <v>0.2195512735036556</v>
       </c>
       <c r="D25" s="3">
-        <v>0.2202955816890891</v>
+        <v>0.2203012801318656</v>
       </c>
       <c r="E25" s="3">
-        <v>0.2199578161017629</v>
+        <v>0.2199661335231438</v>
       </c>
       <c r="F25" s="3">
-        <v>0.2199202718183245</v>
+        <v>0.2199285168885287</v>
       </c>
       <c r="G25" s="3">
-        <v>0.2199721890966738</v>
+        <v>0.2199795812079206</v>
       </c>
       <c r="H25" s="3">
-        <v>0.220003676999032</v>
+        <v>0.2200102001497022</v>
       </c>
       <c r="I25" s="3">
-        <v>0.2200630573597064</v>
+        <v>0.220068871845497</v>
       </c>
       <c r="J25" s="3">
-        <v>0.2201516952883535</v>
+        <v>0.2201569611259182</v>
       </c>
       <c r="K25" s="3">
-        <v>0.2201291651349886</v>
+        <v>0.2201340913938908</v>
       </c>
       <c r="L25" s="3">
-        <v>0.2201851139989612</v>
+        <v>0.2201897672038575</v>
       </c>
       <c r="M25" s="3">
-        <v>0.2202178657699785</v>
+        <v>0.220222334856519</v>
       </c>
       <c r="N25" s="3">
-        <v>0.2202341471245403</v>
+        <v>0.2202384877928925</v>
       </c>
       <c r="O25" s="3">
-        <v>0.2202133786258614</v>
+        <v>0.2202176520111073</v>
       </c>
       <c r="P25" s="3">
-        <v>0.2202496080711499</v>
+        <v>0.2202538041817151</v>
       </c>
       <c r="Q25" s="3" t="s">
         <v>10</v>
@@ -2076,43 +2076,43 @@
         <v>0</v>
       </c>
       <c r="D31" s="3">
-        <v>92.66103157419671</v>
+        <v>91.55735096405004</v>
       </c>
       <c r="E31" s="3">
-        <v>92.15889916948238</v>
+        <v>91.07259052711895</v>
       </c>
       <c r="F31" s="3">
-        <v>91.86826805523243</v>
+        <v>90.79266241030486</v>
       </c>
       <c r="G31" s="3">
-        <v>91.6573094027036</v>
+        <v>90.58945256770775</v>
       </c>
       <c r="H31" s="3">
-        <v>91.46017107602776</v>
+        <v>90.39904705689646</v>
       </c>
       <c r="I31" s="3">
-        <v>91.29304783984804</v>
+        <v>90.23750468403055</v>
       </c>
       <c r="J31" s="3">
-        <v>91.17842265935019</v>
+        <v>90.12691370328032</v>
       </c>
       <c r="K31" s="3">
-        <v>91.05248498722999</v>
+        <v>90.00498530369269</v>
       </c>
       <c r="L31" s="3">
-        <v>90.95437923479034</v>
+        <v>89.91007403799919</v>
       </c>
       <c r="M31" s="3">
-        <v>90.87539535845315</v>
+        <v>89.8336811968456</v>
       </c>
       <c r="N31" s="3">
-        <v>90.81171324269702</v>
+        <v>89.7721176416748</v>
       </c>
       <c r="O31" s="3">
-        <v>90.74724185450317</v>
+        <v>89.70968184341267</v>
       </c>
       <c r="P31" s="3">
-        <v>90.70019244187539</v>
+        <v>89.66420026847183</v>
       </c>
       <c r="Q31" s="3" t="s">
         <v>10</v>
@@ -2192,7 +2192,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q81"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6201,69 +6201,171 @@
     <row r="80" spans="1:17">
       <c r="A80" s="2"/>
       <c r="B80" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D80" s="3">
+        <v>0</v>
+      </c>
+      <c r="E80" s="3">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="F80" s="3">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="G80" s="3">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="H80" s="3">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="I80" s="3">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="J80" s="3">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="K80" s="3">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="L80" s="3">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="M80" s="3">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="N80" s="3">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="O80" s="3">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="P80" s="3">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="Q80" s="3">
+        <v>0.9500000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
+      <c r="A81" s="2"/>
+      <c r="B81" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C81" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D80" s="3">
-        <v>0</v>
-      </c>
-      <c r="E80" s="3">
+      <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>18045593.09756667</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F81" s="3">
         <v>18045593.09756667</v>
       </c>
-      <c r="G80" s="3">
+      <c r="G81" s="3">
         <v>18045593.09756667</v>
       </c>
-      <c r="H80" s="3">
+      <c r="H81" s="3">
         <v>18045593.09756667</v>
       </c>
-      <c r="I80" s="3">
+      <c r="I81" s="3">
         <v>18045593.09756667</v>
       </c>
-      <c r="J80" s="3">
+      <c r="J81" s="3">
         <v>18045593.09756667</v>
       </c>
-      <c r="K80" s="3">
+      <c r="K81" s="3">
         <v>18045593.09756667</v>
       </c>
-      <c r="L80" s="3">
+      <c r="L81" s="3">
         <v>18045593.09756667</v>
       </c>
-      <c r="M80" s="3">
+      <c r="M81" s="3">
         <v>18045593.09756667</v>
       </c>
-      <c r="N80" s="3">
+      <c r="N81" s="3">
         <v>18045593.09756667</v>
       </c>
-      <c r="O80" s="3">
+      <c r="O81" s="3">
         <v>18045593.09756667</v>
       </c>
-      <c r="P80" s="3">
+      <c r="P81" s="3">
         <v>18045593.09756667</v>
       </c>
-      <c r="Q80" s="3">
+      <c r="Q81" s="3">
         <v>18045593.09756667</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
-      <c r="A81" s="2"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
-      <c r="M81" s="3"/>
-      <c r="N81" s="3"/>
+    <row r="82" spans="1:17">
+      <c r="A82" s="2"/>
+      <c r="B82" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D82" s="3">
+        <v>0</v>
+      </c>
+      <c r="E82" s="3">
+        <v>18045593.09756667</v>
+      </c>
+      <c r="F82" s="3">
+        <v>18045593.09756667</v>
+      </c>
+      <c r="G82" s="3">
+        <v>18045593.09756667</v>
+      </c>
+      <c r="H82" s="3">
+        <v>18045593.09756667</v>
+      </c>
+      <c r="I82" s="3">
+        <v>18045593.09756667</v>
+      </c>
+      <c r="J82" s="3">
+        <v>18045593.09756667</v>
+      </c>
+      <c r="K82" s="3">
+        <v>18045593.09756667</v>
+      </c>
+      <c r="L82" s="3">
+        <v>18045593.09756667</v>
+      </c>
+      <c r="M82" s="3">
+        <v>18045593.09756667</v>
+      </c>
+      <c r="N82" s="3">
+        <v>18045593.09756667</v>
+      </c>
+      <c r="O82" s="3">
+        <v>18045593.09756667</v>
+      </c>
+      <c r="P82" s="3">
+        <v>18045593.09756667</v>
+      </c>
+      <c r="Q82" s="3">
+        <v>18045593.09756667</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
+      <c r="A83" s="2"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
